--- a/resultadosDM.xlsx
+++ b/resultadosDM.xlsx
@@ -1,86 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5f934af0bcd737c/Documentos/DanielaBM/2023/3. Trabajo/Asistente investigativo PUJ/quality-rips-surveillance/quality-rips-surveillance/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4D69FDCE8F79A8D366075C52F336DAF54BE8EBA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84218059-7D1B-4EF5-B77F-6FA0102E353F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>muestra</t>
-  </si>
-  <si>
-    <t>casos_CIE10</t>
-  </si>
-  <si>
-    <t>prev_CIE10</t>
-  </si>
-  <si>
-    <t>casos_CUPS</t>
-  </si>
-  <si>
-    <t>prev_CUPS</t>
-  </si>
-  <si>
-    <t>casos_dx_cups_atc</t>
-  </si>
-  <si>
-    <t>prev_dx_cups_atc</t>
-  </si>
-  <si>
-    <t>casos_total</t>
-  </si>
-  <si>
-    <t>prev_total</t>
-  </si>
-  <si>
-    <t>prev_literatura</t>
-  </si>
-  <si>
-    <t>bd_2011</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>bd_2012</t>
-  </si>
-  <si>
-    <t>bd_2014</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0.0073</t>
-  </si>
-  <si>
-    <t>bd_2015</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,53 +350,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>bd</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>muestra</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>casos_CIE10</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>prev_CIE10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>casos_CUPS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prev_CUPS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>casos_dx_cups_atc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prev_dx_cups_atc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>casos_total</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>prev_total</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>prev_literatura</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bd_2011</t>
+        </is>
       </c>
       <c r="B2">
         <v>749</v>
@@ -480,13 +427,17 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>0.0067</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G2">
         <v>0</v>
@@ -498,15 +449,17 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>6.7000000000000002E-3</v>
+        <v>0.0067</v>
       </c>
       <c r="K2">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bd_2012</t>
+        </is>
       </c>
       <c r="B3">
         <v>1098</v>
@@ -515,33 +468,39 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>0.0036</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
-        <v>3.5999999999999999E-3</v>
+        <v>0.0036</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
-        <v>3.5999999999999999E-3</v>
+        <v>0.0036</v>
       </c>
       <c r="K3">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bd_2014</t>
+        </is>
       </c>
       <c r="B4">
         <v>409</v>
@@ -550,33 +509,39 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>0.0196</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>2.3999999999999998E-3</v>
+        <v>0.0024</v>
       </c>
       <c r="I4">
         <v>11</v>
       </c>
       <c r="J4">
-        <v>2.69E-2</v>
+        <v>0.0269</v>
       </c>
       <c r="K4">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bd_2015</t>
+        </is>
       </c>
       <c r="B5">
         <v>50</v>
@@ -587,11 +552,15 @@
       <c r="D5">
         <v>0.18</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G5">
         <v>4</v>
@@ -606,13 +575,10 @@
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>3.1199999999999999E-2</v>
+        <v>0.0312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:F3 E4:E5 F5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>